--- a/docs-match-analyser-edge-tt/chat_notes/MY NOTES/ShotModelTables.xlsx
+++ b/docs-match-analyser-edge-tt/chat_notes/MY NOTES/ShotModelTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\match-analyser-edge-tt\docs-match-analyser-edge-tt\chat_notes\MY NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F36D36-1F28-419B-96B4-D426681677C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5490ED-7492-4F71-966E-7668B41ABED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3337" yWindow="1943" windowWidth="15660" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beginning and ends" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="314">
   <si>
     <t>Object</t>
   </si>
@@ -673,81 +673,21 @@
     <t>Infered from</t>
   </si>
   <si>
-    <t>missed-left / left / middle / right / missed-right</t>
-  </si>
-  <si>
-    <t>in-net / short / middle / long / missed-long</t>
-  </si>
-  <si>
     <t>INPUT OR INFER</t>
   </si>
   <si>
     <t>Phase 1</t>
   </si>
   <si>
-    <t>in-net / missed / winner / in-play</t>
-  </si>
-  <si>
-    <t>Rally-End</t>
-  </si>
-  <si>
     <t>Phase 2 if…</t>
   </si>
   <si>
-    <t>shot-intent</t>
-  </si>
-  <si>
-    <t>shot-quality</t>
-  </si>
-  <si>
-    <t>shot-error</t>
-  </si>
-  <si>
-    <t>incoming-difficulty</t>
-  </si>
-  <si>
-    <t>recovery-quality</t>
-  </si>
-  <si>
     <t>subjective</t>
   </si>
   <si>
     <t>serve / push / dig / drive / loop / smash / chop / block / etc…...</t>
   </si>
   <si>
-    <t>contact-ball-position</t>
-  </si>
-  <si>
-    <t>contact-ball-depth</t>
-  </si>
-  <si>
-    <t>contact-player-position</t>
-  </si>
-  <si>
-    <t>contact-player-distance</t>
-  </si>
-  <si>
-    <t>contact-player-wing</t>
-  </si>
-  <si>
-    <t>contact-player-shotType</t>
-  </si>
-  <si>
-    <t>outgoing-ball-spin</t>
-  </si>
-  <si>
-    <t>outgoing-ball-speed</t>
-  </si>
-  <si>
-    <t>outgoing-ball-arc</t>
-  </si>
-  <si>
-    <t>outgoing-ball-destination</t>
-  </si>
-  <si>
-    <t>outgoing-ball-depth</t>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -757,60 +697,12 @@
     <t>forced / unforced</t>
   </si>
   <si>
-    <t xml:space="preserve"> - contact-ball-position: left / middle / right //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - contact-ball-depth: close / mid / far //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - contact-player-position: left / middle / right //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - contact-player-distance: close / mid / far //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - contact-player-wing: backhand / forehand //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - contact-player-shotType: serve / push / dig / drive / loop / smash / chop / block / etc…... //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - outgoing-ball-spin: under / none / top //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - outgoing-ball-speed: slow / medium / fast //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - outgoing-ball-arc: low / medium / high //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - outgoing-ball-destination: missed-left / left / middle / right / missed-right //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - outgoing-ball-depth: in-net / short / middle / long / missed-long //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - shot-error: forced / unforced //Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - shot-intent: defensive / neutral / aggressive / finish //subjective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - shot-quality: poor / average / good / excellent //subjective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - incoming-difficulty: easy / neutral / difficult //subjective</t>
-  </si>
-  <si>
     <t>inferred_pressure_level: ... | null            // ❌ Always null</t>
   </si>
   <si>
     <t>inferred_intent_quality: ... | null            // ❌ Always null</t>
   </si>
   <si>
-    <t>inferred_player_position: ... | null           // ❌ Always null</t>
-  </si>
-  <si>
     <t>inferred_distance_from_table: ... | null       // ❌ Always null</t>
   </si>
   <si>
@@ -829,109 +721,265 @@
     <t>// Only TWO inferred fields ARE populated:</t>
   </si>
   <si>
-    <t>inferred_shot_type: string | null              // ✅ Set to 'serve' for serves</t>
-  </si>
-  <si>
     <t>inferred_shot_confidence: ... | null           // ✅ Set to 'high' for serves</t>
   </si>
   <si>
-    <t>serve_spin_family</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>shot_length</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>shot_result</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>shot_origin</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>shot_target</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>is_rally_end</t>
-  </si>
-  <si>
-    <t>rally_end_role</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>ADD: shot-error           null or       forced / unforced</t>
-  </si>
-  <si>
-    <t>ADD: shot-quality           null or       poor / average / good / excellent</t>
-  </si>
-  <si>
-    <t>ADD: incoming-difficulty           null or       easy / neutral / difficult</t>
-  </si>
-  <si>
-    <t>ADD: player-position           null or       left / middle / right</t>
-  </si>
-  <si>
-    <t>ADD: player-distance           null or       close / mid / far</t>
-  </si>
-  <si>
-    <t>ADD: ball-spin           null or       under / none / top</t>
-  </si>
-  <si>
-    <t>ADD: ball-speed           null or       slow / medium / fast</t>
-  </si>
-  <si>
-    <t>ADD: ball-arc           null or       low / medium / high</t>
-  </si>
-  <si>
-    <t>ADD: contact-timing           null or       early / peak / late</t>
-  </si>
-  <si>
-    <t>ADD: shot-type           null or       serve / push / dig / drive / loop / smash / chop / block / etc…...</t>
-  </si>
-  <si>
-    <t>ADD: serve-depth           null or       left / middle / right</t>
-  </si>
-  <si>
-    <t>RENAME: serve-spin</t>
-  </si>
-  <si>
-    <t>ADD: receive-depth           null or       left / middle / right</t>
-  </si>
-  <si>
-    <t>RENAME: shot-depth           null or       in-net / short / middle / long / missed-long</t>
-  </si>
-  <si>
-    <t>RENAME: shot-wing           null or       backhand / forehand</t>
-  </si>
-  <si>
-    <t>RENAME: shot-intent           null or       defensive / neutral / aggressive / finish</t>
-  </si>
-  <si>
-    <t>RENAME: contact-position           null or       left / middle / right</t>
-  </si>
-  <si>
-    <t>RENAME: ball-destination           null or       missed-left / left / middle / right / missed-right</t>
+    <t>KEEP: intent           null or       defensive / neutral / aggressive / finish</t>
+  </si>
+  <si>
+    <t>KEEP: serve_spin_family</t>
+  </si>
+  <si>
+    <t>left / middle / right / missed_long</t>
+  </si>
+  <si>
+    <t>short / middle / long / in_net / missed_wide</t>
+  </si>
+  <si>
+    <t>rally_ended_with</t>
+  </si>
+  <si>
+    <t>winner / forced_error / unforced_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in_net / missed_table</t>
+  </si>
+  <si>
+    <t>forced / unforced / semi_forced</t>
+  </si>
+  <si>
+    <t>_ id: string</t>
+  </si>
+  <si>
+    <t>_ rally_id: string  // FK to rallies</t>
+  </si>
+  <si>
+    <t>_ point_end_type: 'serviceFault' | 'receiveError' | 'forcedError' | 'unforcedError' | 'winnerShot' | null</t>
+  </si>
+  <si>
+    <t>_ video_id: string | null  // Which video segment</t>
+  </si>
+  <si>
+    <t>_ luck_type: 'none' | 'luckyNet' | 'luckyEdgeTable' | 'luckyEdgeBat' | null</t>
+  </si>
+  <si>
+    <t>_ time: number  // Timestamp in video</t>
+  </si>
+  <si>
+    <t>_ shot_index: number  // 1_based</t>
+  </si>
+  <si>
+    <t>_ player_id: string  // FK to players</t>
+  </si>
+  <si>
+    <t>_ serve_spin_family: 'under' | 'top' | 'no_spin' | 'side' | null</t>
+  </si>
+  <si>
+    <t>_ serve_length: 'short' | 'half_long' | 'long' | null</t>
+  </si>
+  <si>
+    <t>_ wing: 'FH' | 'BH' | null</t>
+  </si>
+  <si>
+    <t>_ intent: 'defensive' | 'neutral' | 'aggressive' | null</t>
+  </si>
+  <si>
+    <t>_ shot_result: 'good' | 'average' | 'in_net' | 'missed_long' | null</t>
+  </si>
+  <si>
+    <t>_ shot_origin: 'left' | 'mid' | 'right' | null</t>
+  </si>
+  <si>
+    <t>_ shot_destination: 'left' | 'mid' | 'right' | null</t>
+  </si>
+  <si>
+    <t>_ is_rally_end: boolean</t>
+  </si>
+  <si>
+    <t>_ rally_end_role: 'winner' | 'forced_error' | 'unforced_error' | 'none'</t>
+  </si>
+  <si>
+    <t>_ inferred_pressure_level: 'low' | 'medium' | 'high' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_intent_quality: 'correct' | 'over_aggressive' | 'over_passive' | 'misread' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_player_position: 'wide_fh' | 'normal' | 'wide_bh' | 'very_wide_fh' | 'very_wide_bh' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_distance_from_table: 'close' | 'mid' | 'far' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_shot_type: string | null  // e.g., 'serve', 'fh_loop_vs_under'</t>
+  </si>
+  <si>
+    <t>_ inferred_shot_confidence: 'low' | 'medium' | 'high' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_spin: string | null  // e.g., 'heavy_topspin'</t>
+  </si>
+  <si>
+    <t>_ inferred_spin_confidence: 'low' | 'medium' | 'high' | null</t>
+  </si>
+  <si>
+    <t>_ inferred_is_third_ball_attack: boolean</t>
+  </si>
+  <si>
+    <t>_ inferred_is_receive_attack: boolean</t>
+  </si>
+  <si>
+    <t>missed_left / left / middle / right / missed_right</t>
+  </si>
+  <si>
+    <t>in_net / short / middle / long / missed_long</t>
+  </si>
+  <si>
+    <t>Rally_End</t>
+  </si>
+  <si>
+    <t>in_net / missed / winner / in_play</t>
+  </si>
+  <si>
+    <t>shot_intent</t>
+  </si>
+  <si>
+    <t>shot_quality</t>
+  </si>
+  <si>
+    <t>incoming_difficulty</t>
+  </si>
+  <si>
+    <t>recovery_quality</t>
+  </si>
+  <si>
+    <t>contact_ball_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_ball_position: left / middle / right //Objective</t>
+  </si>
+  <si>
+    <t>contact_ball_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_ball_depth: close / mid / far //Objective</t>
+  </si>
+  <si>
+    <t>contact_player_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_player_position: left / middle / right //Objective</t>
+  </si>
+  <si>
+    <t>contact_player_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_player_distance: close / mid / far //Objective</t>
+  </si>
+  <si>
+    <t>contact_player_wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_player_wing: backhand / forehand //Objective</t>
+  </si>
+  <si>
+    <t>contact_player_shotType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ contact_player_shotType: serve / push / dig / drive / loop / smash / chop / block / etc…... //Objective</t>
+  </si>
+  <si>
+    <t>outgoing_ball_spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ outgoing_ball_spin: under / none / top //Objective</t>
+  </si>
+  <si>
+    <t>outgoing_ball_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ outgoing_ball_speed: slow / medium / fast //Objective</t>
+  </si>
+  <si>
+    <t>outgoing_ball_arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ outgoing_ball_arc: low / medium / high //Objective</t>
+  </si>
+  <si>
+    <t>outgoing_ball_destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ outgoing_ball_destination: missed_left / left / middle / right / missed_right //Objective</t>
+  </si>
+  <si>
+    <t>outgoing_ball_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ outgoing_ball_depth: in_net / short / middle / long / missed_long //Objective</t>
+  </si>
+  <si>
+    <t>shot_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ shot_error: forced / unforced //Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ shot_intent: defensive / neutral / aggressive / finish //subjective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ shot_quality: poor / average / good / excellent //subjective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ incoming_difficulty: easy / neutral / difficult //subjective</t>
+  </si>
+  <si>
+    <t>RENAME: shot_wing           null or       backhand / forehand</t>
+  </si>
+  <si>
+    <t>KEEP: shot_length           null or       in_net / short / middle / long / missed_long</t>
+  </si>
+  <si>
+    <t>ADD: shot_error           null or       forced / unforced</t>
+  </si>
+  <si>
+    <t>ADD: shot_quality           null or       poor / average / good / excellent</t>
+  </si>
+  <si>
+    <t>ADD: incoming_difficulty           null or       easy / neutral / difficult</t>
+  </si>
+  <si>
+    <t>KEEP: shot_origin</t>
+  </si>
+  <si>
+    <t>KEEP: shot_target           null or       missed_left / left / middle / right / missed_right</t>
+  </si>
+  <si>
+    <t>ADD: shot_contact_timing_inferred  null or       early / peak / late</t>
+  </si>
+  <si>
+    <t>ADD: player_position_inferred  null or       left / middle / right</t>
+  </si>
+  <si>
+    <t>RENAME: player_distance_inferred  null or       close / mid / far</t>
+  </si>
+  <si>
+    <t>RENAME: shot_spin_inferred  null or       under / none / top</t>
+  </si>
+  <si>
+    <t>ADD: shot_speed_inferred  null or       slow / medium / fast</t>
+  </si>
+  <si>
+    <t>ADD: shot_arc_inferred  null or       low / medium / high</t>
+  </si>
+  <si>
+    <t>RENAME: shot_type_inferred        null or       serve / push / dig / drive / loop / smash / chop / block / etc…...</t>
+  </si>
+  <si>
+    <t>inferred_shot_type</t>
   </si>
 </sst>
 </file>
@@ -1560,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187730BD-8FAC-43B7-94D0-A4E593EBB1CC}">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168:E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1570,7 +1618,7 @@
     <col min="2" max="2" width="17.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.46484375" customWidth="1"/>
     <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
@@ -1762,8 +1810,8 @@
         <v>93</v>
       </c>
       <c r="E9" s="29" t="str">
-        <f>C9&amp;"-"&amp;D9&amp;"-"&amp;B9</f>
-        <v>incoming-ball-spin</v>
+        <f>C9&amp;"_"&amp;D9&amp;"_"&amp;B9</f>
+        <v>incoming_ball_spin</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>138</v>
@@ -1805,8 +1853,8 @@
         <v>93</v>
       </c>
       <c r="E10" s="32" t="str">
-        <f t="shared" ref="E10:E26" si="0">C10&amp;"-"&amp;D10&amp;"-"&amp;B10</f>
-        <v>incoming-ball-speed</v>
+        <f>C10&amp;"_"&amp;D10&amp;"_"&amp;B10</f>
+        <v>incoming_ball_speed</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>139</v>
@@ -1848,8 +1896,8 @@
         <v>93</v>
       </c>
       <c r="E11" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>incoming-ball-arc</v>
+        <f>C11&amp;"_"&amp;D11&amp;"_"&amp;B11</f>
+        <v>incoming_ball_arc</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>140</v>
@@ -1891,8 +1939,8 @@
         <v>93</v>
       </c>
       <c r="E12" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>incoming-ball-destination</v>
+        <f>C12&amp;"_"&amp;D12&amp;"_"&amp;B12</f>
+        <v>incoming_ball_destination</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>141</v>
@@ -1937,8 +1985,8 @@
         <v>93</v>
       </c>
       <c r="E13" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>incoming-ball-depth</v>
+        <f>C13&amp;"_"&amp;D13&amp;"_"&amp;B13</f>
+        <v>incoming_ball_depth</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>142</v>
@@ -1980,8 +2028,8 @@
         <v>94</v>
       </c>
       <c r="E14" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>incoming-player-position</v>
+        <f>C14&amp;"_"&amp;D14&amp;"_"&amp;B14</f>
+        <v>incoming_player_position</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>141</v>
@@ -2023,8 +2071,8 @@
         <v>94</v>
       </c>
       <c r="E15" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>incoming-player-distanceFromTable</v>
+        <f>C15&amp;"_"&amp;D15&amp;"_"&amp;B15</f>
+        <v>incoming_player_distanceFromTable</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>143</v>
@@ -2066,8 +2114,8 @@
         <v>94</v>
       </c>
       <c r="E16" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>contact-player-position</v>
+        <f>C16&amp;"_"&amp;D16&amp;"_"&amp;B16</f>
+        <v>contact_player_position</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>141</v>
@@ -2109,8 +2157,8 @@
         <v>94</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>contact-player-distanceFromTable</v>
+        <f>C17&amp;"_"&amp;D17&amp;"_"&amp;B17</f>
+        <v>contact_player_distanceFromTable</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>143</v>
@@ -2152,8 +2200,8 @@
         <v>94</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>contact-player-wing</v>
+        <f>C18&amp;"_"&amp;D18&amp;"_"&amp;B18</f>
+        <v>contact_player_wing</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>144</v>
@@ -2186,8 +2234,8 @@
         <v>94</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>contact-player-shotType</v>
+        <f>C19&amp;"_"&amp;D19&amp;"_"&amp;B19</f>
+        <v>contact_player_shotType</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>145</v>
@@ -2224,8 +2272,8 @@
         <v>93</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-ball-spin</v>
+        <f>C20&amp;"_"&amp;D20&amp;"_"&amp;B20</f>
+        <v>outgoing_ball_spin</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>138</v>
@@ -2261,8 +2309,8 @@
         <v>93</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-ball-speed</v>
+        <f>C21&amp;"_"&amp;D21&amp;"_"&amp;B21</f>
+        <v>outgoing_ball_speed</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>139</v>
@@ -2298,8 +2346,8 @@
         <v>93</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-ball-arc</v>
+        <f>C22&amp;"_"&amp;D22&amp;"_"&amp;B22</f>
+        <v>outgoing_ball_arc</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>140</v>
@@ -2332,11 +2380,11 @@
         <v>93</v>
       </c>
       <c r="E23" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-ball-destination</v>
+        <f>C23&amp;"_"&amp;D23&amp;"_"&amp;B23</f>
+        <v>outgoing_ball_destination</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G23" s="40"/>
       <c r="I23" s="1" t="s">
@@ -2366,11 +2414,11 @@
         <v>93</v>
       </c>
       <c r="E24" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-ball-depth</v>
+        <f>C24&amp;"_"&amp;D24&amp;"_"&amp;B24</f>
+        <v>outgoing_ball_depth</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="G24" s="40"/>
       <c r="I24" t="s">
@@ -2400,8 +2448,8 @@
         <v>94</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-player-position</v>
+        <f>C25&amp;"_"&amp;D25&amp;"_"&amp;B25</f>
+        <v>outgoing_player_position</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>141</v>
@@ -2434,8 +2482,8 @@
         <v>94</v>
       </c>
       <c r="E26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>outgoing-player-distanceFromTable</v>
+        <f>C26&amp;"_"&amp;D26&amp;"_"&amp;B26</f>
+        <v>outgoing_player_distanceFromTable</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>143</v>
@@ -2457,10 +2505,10 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2589,7 +2637,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>133</v>
@@ -2614,7 +2662,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2622,7 +2670,7 @@
         <v>135</v>
       </c>
       <c r="Q36" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
@@ -2679,7 +2727,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>169</v>
@@ -2688,37 +2736,37 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
@@ -2728,27 +2776,27 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.45">
@@ -2758,22 +2806,22 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
@@ -2783,52 +2831,52 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2850,8 +2898,8 @@
         <v>93</v>
       </c>
       <c r="E79" s="29" t="str">
-        <f>C79&amp;"-"&amp;D79&amp;"-"&amp;B79</f>
-        <v>incoming-ball-spin</v>
+        <f>C79&amp;"_"&amp;D79&amp;"_"&amp;B79</f>
+        <v>incoming_ball_spin</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>138</v>
@@ -2875,8 +2923,8 @@
         <v>93</v>
       </c>
       <c r="E80" s="32" t="str">
-        <f t="shared" ref="E80:E100" si="1">C80&amp;"-"&amp;D80&amp;"-"&amp;B80</f>
-        <v>incoming-ball-speed</v>
+        <f>C80&amp;"_"&amp;D80&amp;"_"&amp;B80</f>
+        <v>incoming_ball_speed</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>139</v>
@@ -2900,8 +2948,8 @@
         <v>93</v>
       </c>
       <c r="E81" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>incoming-ball-arc</v>
+        <f>C81&amp;"_"&amp;D81&amp;"_"&amp;B81</f>
+        <v>incoming_ball_arc</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>140</v>
@@ -2925,8 +2973,8 @@
         <v>93</v>
       </c>
       <c r="E82" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>incoming-ball-destination</v>
+        <f>C82&amp;"_"&amp;D82&amp;"_"&amp;B82</f>
+        <v>incoming_ball_destination</v>
       </c>
       <c r="F82" s="33" t="s">
         <v>141</v>
@@ -2950,8 +2998,8 @@
         <v>93</v>
       </c>
       <c r="E83" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>incoming-ball-depth</v>
+        <f>C83&amp;"_"&amp;D83&amp;"_"&amp;B83</f>
+        <v>incoming_ball_depth</v>
       </c>
       <c r="F83" s="33" t="s">
         <v>142</v>
@@ -2975,8 +3023,8 @@
         <v>94</v>
       </c>
       <c r="E84" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>incoming-player-position</v>
+        <f>C84&amp;"_"&amp;D84&amp;"_"&amp;B84</f>
+        <v>incoming_player_position</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>141</v>
@@ -3000,8 +3048,8 @@
         <v>94</v>
       </c>
       <c r="E85" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>incoming-player-distanceFromTable</v>
+        <f>C85&amp;"_"&amp;D85&amp;"_"&amp;B85</f>
+        <v>incoming_player_distanceFromTable</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>143</v>
@@ -3045,8 +3093,8 @@
         <v>93</v>
       </c>
       <c r="E88" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-ball-position</v>
+        <f>C88&amp;"_"&amp;D88&amp;"_"&amp;B88</f>
+        <v>contact_ball_position</v>
       </c>
       <c r="F88" s="46" t="s">
         <v>141</v>
@@ -3068,8 +3116,8 @@
         <v>93</v>
       </c>
       <c r="E89" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-ball-depth</v>
+        <f>C89&amp;"_"&amp;D89&amp;"_"&amp;B89</f>
+        <v>contact_ball_depth</v>
       </c>
       <c r="F89" s="46" t="s">
         <v>143</v>
@@ -3091,8 +3139,8 @@
         <v>94</v>
       </c>
       <c r="E90" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-player-position</v>
+        <f>C90&amp;"_"&amp;D90&amp;"_"&amp;B90</f>
+        <v>contact_player_position</v>
       </c>
       <c r="F90" s="46" t="s">
         <v>141</v>
@@ -3113,8 +3161,8 @@
         <v>94</v>
       </c>
       <c r="E91" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-player-distanceFromTable</v>
+        <f>C91&amp;"_"&amp;D91&amp;"_"&amp;B91</f>
+        <v>contact_player_distanceFromTable</v>
       </c>
       <c r="F91" s="46" t="s">
         <v>143</v>
@@ -3135,8 +3183,8 @@
         <v>94</v>
       </c>
       <c r="E92" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-player-wing</v>
+        <f>C92&amp;"_"&amp;D92&amp;"_"&amp;B92</f>
+        <v>contact_player_wing</v>
       </c>
       <c r="F92" s="46" t="s">
         <v>144</v>
@@ -3157,8 +3205,8 @@
         <v>94</v>
       </c>
       <c r="E93" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>contact-player-shotType</v>
+        <f>C93&amp;"_"&amp;D93&amp;"_"&amp;B93</f>
+        <v>contact_player_shotType</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>145</v>
@@ -3179,8 +3227,8 @@
         <v>93</v>
       </c>
       <c r="E94" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-ball-spin</v>
+        <f>C94&amp;"_"&amp;D94&amp;"_"&amp;B94</f>
+        <v>outgoing_ball_spin</v>
       </c>
       <c r="F94" s="24" t="s">
         <v>138</v>
@@ -3201,8 +3249,8 @@
         <v>93</v>
       </c>
       <c r="E95" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-ball-speed</v>
+        <f>C95&amp;"_"&amp;D95&amp;"_"&amp;B95</f>
+        <v>outgoing_ball_speed</v>
       </c>
       <c r="F95" s="24" t="s">
         <v>139</v>
@@ -3223,8 +3271,8 @@
         <v>93</v>
       </c>
       <c r="E96" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-ball-arc</v>
+        <f>C96&amp;"_"&amp;D96&amp;"_"&amp;B96</f>
+        <v>outgoing_ball_arc</v>
       </c>
       <c r="F96" s="24" t="s">
         <v>140</v>
@@ -3245,11 +3293,11 @@
         <v>93</v>
       </c>
       <c r="E97" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-ball-destination</v>
+        <f>C97&amp;"_"&amp;D97&amp;"_"&amp;B97</f>
+        <v>outgoing_ball_destination</v>
       </c>
       <c r="F97" s="41" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G97" s="40"/>
     </row>
@@ -3267,11 +3315,11 @@
         <v>93</v>
       </c>
       <c r="E98" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-ball-depth</v>
+        <f>C98&amp;"_"&amp;D98&amp;"_"&amp;B98</f>
+        <v>outgoing_ball_depth</v>
       </c>
       <c r="F98" s="41" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="G98" s="40"/>
     </row>
@@ -3289,8 +3337,8 @@
         <v>94</v>
       </c>
       <c r="E99" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-player-position</v>
+        <f>C99&amp;"_"&amp;D99&amp;"_"&amp;B99</f>
+        <v>outgoing_player_position</v>
       </c>
       <c r="F99" s="24" t="s">
         <v>141</v>
@@ -3311,8 +3359,8 @@
         <v>94</v>
       </c>
       <c r="E100" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>outgoing-player-distanceFromTable</v>
+        <f>C100&amp;"_"&amp;D100&amp;"_"&amp;B100</f>
+        <v>outgoing_player_distanceFromTable</v>
       </c>
       <c r="F100" s="27" t="s">
         <v>143</v>
@@ -3333,8 +3381,8 @@
         <v>93</v>
       </c>
       <c r="E101" s="29" t="str">
-        <f>C101&amp;"-"&amp;D101&amp;"-"&amp;B101</f>
-        <v>incoming-ball-spin</v>
+        <f>C101&amp;"_"&amp;D101&amp;"_"&amp;B101</f>
+        <v>incoming_ball_spin</v>
       </c>
       <c r="F101" s="30" t="s">
         <v>138</v>
@@ -3355,8 +3403,8 @@
         <v>93</v>
       </c>
       <c r="E102" s="32" t="str">
-        <f t="shared" ref="E102:E118" si="2">C102&amp;"-"&amp;D102&amp;"-"&amp;B102</f>
-        <v>incoming-ball-speed</v>
+        <f>C102&amp;"_"&amp;D102&amp;"_"&amp;B102</f>
+        <v>incoming_ball_speed</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>139</v>
@@ -3377,8 +3425,8 @@
         <v>93</v>
       </c>
       <c r="E103" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>incoming-ball-arc</v>
+        <f>C103&amp;"_"&amp;D103&amp;"_"&amp;B103</f>
+        <v>incoming_ball_arc</v>
       </c>
       <c r="F103" s="33" t="s">
         <v>140</v>
@@ -3399,8 +3447,8 @@
         <v>93</v>
       </c>
       <c r="E104" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>incoming-ball-destination</v>
+        <f>C104&amp;"_"&amp;D104&amp;"_"&amp;B104</f>
+        <v>incoming_ball_destination</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>141</v>
@@ -3421,8 +3469,8 @@
         <v>93</v>
       </c>
       <c r="E105" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>incoming-ball-depth</v>
+        <f>C105&amp;"_"&amp;D105&amp;"_"&amp;B105</f>
+        <v>incoming_ball_depth</v>
       </c>
       <c r="F105" s="33" t="s">
         <v>142</v>
@@ -3443,8 +3491,8 @@
         <v>94</v>
       </c>
       <c r="E106" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>incoming-player-position</v>
+        <f>C106&amp;"_"&amp;D106&amp;"_"&amp;B106</f>
+        <v>incoming_player_position</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>141</v>
@@ -3465,8 +3513,8 @@
         <v>94</v>
       </c>
       <c r="E107" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>incoming-player-distanceFromTable</v>
+        <f>C107&amp;"_"&amp;D107&amp;"_"&amp;B107</f>
+        <v>incoming_player_distanceFromTable</v>
       </c>
       <c r="F107" s="36" t="s">
         <v>143</v>
@@ -3487,8 +3535,8 @@
         <v>94</v>
       </c>
       <c r="E108" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>contact-player-position</v>
+        <f>C108&amp;"_"&amp;D108&amp;"_"&amp;B108</f>
+        <v>contact_player_position</v>
       </c>
       <c r="F108" s="21" t="s">
         <v>141</v>
@@ -3509,8 +3557,8 @@
         <v>94</v>
       </c>
       <c r="E109" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>contact-player-distanceFromTable</v>
+        <f>C109&amp;"_"&amp;D109&amp;"_"&amp;B109</f>
+        <v>contact_player_distanceFromTable</v>
       </c>
       <c r="F109" s="24" t="s">
         <v>143</v>
@@ -3531,8 +3579,8 @@
         <v>94</v>
       </c>
       <c r="E110" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>contact-player-wing</v>
+        <f>C110&amp;"_"&amp;D110&amp;"_"&amp;B110</f>
+        <v>contact_player_wing</v>
       </c>
       <c r="F110" s="24" t="s">
         <v>144</v>
@@ -3553,8 +3601,8 @@
         <v>94</v>
       </c>
       <c r="E111" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>contact-player-shotType</v>
+        <f>C111&amp;"_"&amp;D111&amp;"_"&amp;B111</f>
+        <v>contact_player_shotType</v>
       </c>
       <c r="F111" s="24" t="s">
         <v>145</v>
@@ -3575,8 +3623,8 @@
         <v>93</v>
       </c>
       <c r="E112" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-ball-spin</v>
+        <f>C112&amp;"_"&amp;D112&amp;"_"&amp;B112</f>
+        <v>outgoing_ball_spin</v>
       </c>
       <c r="F112" s="24" t="s">
         <v>138</v>
@@ -3597,8 +3645,8 @@
         <v>93</v>
       </c>
       <c r="E113" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-ball-speed</v>
+        <f>C113&amp;"_"&amp;D113&amp;"_"&amp;B113</f>
+        <v>outgoing_ball_speed</v>
       </c>
       <c r="F113" s="24" t="s">
         <v>139</v>
@@ -3619,8 +3667,8 @@
         <v>93</v>
       </c>
       <c r="E114" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-ball-arc</v>
+        <f>C114&amp;"_"&amp;D114&amp;"_"&amp;B114</f>
+        <v>outgoing_ball_arc</v>
       </c>
       <c r="F114" s="24" t="s">
         <v>140</v>
@@ -3641,11 +3689,11 @@
         <v>93</v>
       </c>
       <c r="E115" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-ball-destination</v>
+        <f>C115&amp;"_"&amp;D115&amp;"_"&amp;B115</f>
+        <v>outgoing_ball_destination</v>
       </c>
       <c r="F115" s="41" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G115" s="40"/>
     </row>
@@ -3663,11 +3711,11 @@
         <v>93</v>
       </c>
       <c r="E116" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-ball-depth</v>
+        <f>C116&amp;"_"&amp;D116&amp;"_"&amp;B116</f>
+        <v>outgoing_ball_depth</v>
       </c>
       <c r="F116" s="41" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="G116" s="40"/>
     </row>
@@ -3685,8 +3733,8 @@
         <v>94</v>
       </c>
       <c r="E117" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-player-position</v>
+        <f>C117&amp;"_"&amp;D117&amp;"_"&amp;B117</f>
+        <v>outgoing_player_position</v>
       </c>
       <c r="F117" s="24" t="s">
         <v>141</v>
@@ -3707,8 +3755,8 @@
         <v>94</v>
       </c>
       <c r="E118" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>outgoing-player-distanceFromTable</v>
+        <f>C118&amp;"_"&amp;D118&amp;"_"&amp;B118</f>
+        <v>outgoing_player_distanceFromTable</v>
       </c>
       <c r="F118" s="27" t="s">
         <v>143</v>
@@ -3761,8 +3809,8 @@
         <v>93</v>
       </c>
       <c r="E124" s="43" t="str">
-        <f>C124&amp;"-"&amp;D124&amp;"-"&amp;B124&amp;" / "</f>
-        <v xml:space="preserve">contact-ball-position / </v>
+        <f>C124&amp;"_"&amp;D124&amp;"_"&amp;B124&amp;" / "</f>
+        <v xml:space="preserve">contact_ball_position / </v>
       </c>
       <c r="F124" s="46" t="s">
         <v>141</v>
@@ -3786,8 +3834,8 @@
         <v>93</v>
       </c>
       <c r="E125" s="43" t="str">
-        <f t="shared" ref="E125:E141" si="3">C125&amp;"-"&amp;D125&amp;"-"&amp;B125&amp;" / "</f>
-        <v xml:space="preserve">contact-ball-depth / </v>
+        <f>C125&amp;"_"&amp;D125&amp;"_"&amp;B125&amp;" / "</f>
+        <v xml:space="preserve">contact_ball_depth / </v>
       </c>
       <c r="F125" s="46" t="s">
         <v>143</v>
@@ -3798,7 +3846,7 @@
       </c>
       <c r="I125" t="str">
         <f>E129</f>
-        <v xml:space="preserve">contact-player-shotType / </v>
+        <v xml:space="preserve">contact_player_shotType / </v>
       </c>
       <c r="K125" t="s">
         <v>201</v>
@@ -3818,8 +3866,8 @@
         <v>94</v>
       </c>
       <c r="E126" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">contact-player-position / </v>
+        <f>C126&amp;"_"&amp;D126&amp;"_"&amp;B126&amp;" / "</f>
+        <v xml:space="preserve">contact_player_position / </v>
       </c>
       <c r="F126" s="46" t="s">
         <v>141</v>
@@ -3830,7 +3878,7 @@
       </c>
       <c r="I126" t="str">
         <f>E124&amp;E128</f>
-        <v xml:space="preserve">contact-ball-position / contact-player-wing / </v>
+        <v xml:space="preserve">contact_ball_position / contact_player_wing / </v>
       </c>
       <c r="J126" s="43" t="s">
         <v>74</v>
@@ -3853,8 +3901,8 @@
         <v>94</v>
       </c>
       <c r="E127" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">contact-player-distance / </v>
+        <f>C127&amp;"_"&amp;D127&amp;"_"&amp;B127&amp;" / "</f>
+        <v xml:space="preserve">contact_player_distance / </v>
       </c>
       <c r="F127" s="46" t="s">
         <v>143</v>
@@ -3865,7 +3913,7 @@
       </c>
       <c r="I127" t="str">
         <f>E125</f>
-        <v xml:space="preserve">contact-ball-depth / </v>
+        <v xml:space="preserve">contact_ball_depth / </v>
       </c>
       <c r="K127" s="43" t="s">
         <v>74</v>
@@ -3885,8 +3933,8 @@
         <v>94</v>
       </c>
       <c r="E128" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">contact-player-wing / </v>
+        <f>C128&amp;"_"&amp;D128&amp;"_"&amp;B128&amp;" / "</f>
+        <v xml:space="preserve">contact_player_wing / </v>
       </c>
       <c r="F128" s="46" t="s">
         <v>144</v>
@@ -3916,8 +3964,8 @@
         <v>94</v>
       </c>
       <c r="E129" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">contact-player-shotType / </v>
+        <f>C129&amp;"_"&amp;D129&amp;"_"&amp;B129&amp;" / "</f>
+        <v xml:space="preserve">contact_player_shotType / </v>
       </c>
       <c r="F129" s="44" t="s">
         <v>145</v>
@@ -3947,8 +3995,8 @@
         <v>93</v>
       </c>
       <c r="E130" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">outgoing-ball-spin / </v>
+        <f>C130&amp;"_"&amp;D130&amp;"_"&amp;B130&amp;" / "</f>
+        <v xml:space="preserve">outgoing_ball_spin / </v>
       </c>
       <c r="F130" s="24" t="s">
         <v>138</v>
@@ -3976,8 +4024,8 @@
         <v>93</v>
       </c>
       <c r="E131" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">outgoing-ball-speed / </v>
+        <f>C131&amp;"_"&amp;D131&amp;"_"&amp;B131&amp;" / "</f>
+        <v xml:space="preserve">outgoing_ball_speed / </v>
       </c>
       <c r="F131" s="24" t="s">
         <v>139</v>
@@ -4005,8 +4053,8 @@
         <v>93</v>
       </c>
       <c r="E132" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">outgoing-ball-arc / </v>
+        <f>C132&amp;"_"&amp;D132&amp;"_"&amp;B132&amp;" / "</f>
+        <v xml:space="preserve">outgoing_ball_arc / </v>
       </c>
       <c r="F132" s="24" t="s">
         <v>140</v>
@@ -4034,11 +4082,11 @@
         <v>93</v>
       </c>
       <c r="E133" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">outgoing-ball-destination / </v>
+        <f>C133&amp;"_"&amp;D133&amp;"_"&amp;B133&amp;" / "</f>
+        <v xml:space="preserve">outgoing_ball_destination / </v>
       </c>
       <c r="F133" s="41" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G133" s="41"/>
       <c r="H133" s="41" t="s">
@@ -4063,11 +4111,11 @@
         <v>93</v>
       </c>
       <c r="E134" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">outgoing-ball-depth / </v>
+        <f>C134&amp;"_"&amp;D134&amp;"_"&amp;B134&amp;" / "</f>
+        <v xml:space="preserve">outgoing_ball_depth / </v>
       </c>
       <c r="F134" s="41" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="G134" s="41"/>
       <c r="H134" s="41" t="s">
@@ -4127,8 +4175,8 @@
         <v>93</v>
       </c>
       <c r="E137" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">incoming-ball-spin / </v>
+        <f>C137&amp;"_"&amp;D137&amp;"_"&amp;B137&amp;" / "</f>
+        <v xml:space="preserve">incoming_ball_spin / </v>
       </c>
       <c r="F137" s="32" t="s">
         <v>138</v>
@@ -4139,7 +4187,7 @@
       </c>
       <c r="I137" t="str">
         <f>E130</f>
-        <v xml:space="preserve">outgoing-ball-spin / </v>
+        <v xml:space="preserve">outgoing_ball_spin / </v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
@@ -4156,8 +4204,8 @@
         <v>93</v>
       </c>
       <c r="E138" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">incoming-ball-speed / </v>
+        <f>C138&amp;"_"&amp;D138&amp;"_"&amp;B138&amp;" / "</f>
+        <v xml:space="preserve">incoming_ball_speed / </v>
       </c>
       <c r="F138" s="32" t="s">
         <v>139</v>
@@ -4167,8 +4215,8 @@
         <v>204</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" ref="I138:I141" si="4">E131</f>
-        <v xml:space="preserve">outgoing-ball-speed / </v>
+        <f t="shared" ref="I138:I141" si="0">E131</f>
+        <v xml:space="preserve">outgoing_ball_speed / </v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
@@ -4185,8 +4233,8 @@
         <v>93</v>
       </c>
       <c r="E139" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">incoming-ball-arc / </v>
+        <f>C139&amp;"_"&amp;D139&amp;"_"&amp;B139&amp;" / "</f>
+        <v xml:space="preserve">incoming_ball_arc / </v>
       </c>
       <c r="F139" s="32" t="s">
         <v>140</v>
@@ -4196,8 +4244,8 @@
         <v>204</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">outgoing-ball-arc / </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">outgoing_ball_arc / </v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
@@ -4214,8 +4262,8 @@
         <v>93</v>
       </c>
       <c r="E140" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">incoming-ball-destination / </v>
+        <f>C140&amp;"_"&amp;D140&amp;"_"&amp;B140&amp;" / "</f>
+        <v xml:space="preserve">incoming_ball_destination / </v>
       </c>
       <c r="F140" s="32" t="s">
         <v>141</v>
@@ -4225,8 +4273,8 @@
         <v>204</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">outgoing-ball-destination / </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">outgoing_ball_destination / </v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
@@ -4243,8 +4291,8 @@
         <v>93</v>
       </c>
       <c r="E141" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">incoming-ball-depth / </v>
+        <f>C141&amp;"_"&amp;D141&amp;"_"&amp;B141&amp;" / "</f>
+        <v xml:space="preserve">incoming_ball_depth / </v>
       </c>
       <c r="F141" s="32" t="s">
         <v>142</v>
@@ -4254,8 +4302,8 @@
         <v>204</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">outgoing-ball-depth / </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">outgoing_ball_depth / </v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
@@ -4296,8 +4344,8 @@
         <v>93</v>
       </c>
       <c r="E144" s="43" t="str">
-        <f>C144&amp;"-"&amp;D144&amp;"-"&amp;B144</f>
-        <v>contact-ball-position</v>
+        <f>C144&amp;"_"&amp;D144&amp;"_"&amp;B144</f>
+        <v>contact_ball_position</v>
       </c>
       <c r="F144" s="46" t="s">
         <v>141</v>
@@ -4308,7 +4356,7 @@
       </c>
       <c r="I144" t="str">
         <f>E133</f>
-        <v xml:space="preserve">outgoing-ball-destination / </v>
+        <v xml:space="preserve">outgoing_ball_destination / </v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -4325,8 +4373,8 @@
         <v>93</v>
       </c>
       <c r="E145" s="43" t="str">
-        <f t="shared" ref="E145:E154" si="5">C145&amp;"-"&amp;D145&amp;"-"&amp;B145</f>
-        <v>contact-ball-depth</v>
+        <f>C145&amp;"_"&amp;D145&amp;"_"&amp;B145</f>
+        <v>contact_ball_depth</v>
       </c>
       <c r="F145" s="46" t="s">
         <v>143</v>
@@ -4337,7 +4385,7 @@
       </c>
       <c r="I145" t="str">
         <f>E134</f>
-        <v xml:space="preserve">outgoing-ball-depth / </v>
+        <v xml:space="preserve">outgoing_ball_depth / </v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -4354,8 +4402,8 @@
         <v>94</v>
       </c>
       <c r="E146" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>contact-player-position</v>
+        <f>C146&amp;"_"&amp;D146&amp;"_"&amp;B146</f>
+        <v>contact_player_position</v>
       </c>
       <c r="F146" s="46" t="s">
         <v>141</v>
@@ -4366,7 +4414,7 @@
       </c>
       <c r="I146" t="str">
         <f>E148&amp;E144&amp;E124</f>
-        <v xml:space="preserve">contact-player-wingcontact-ball-positioncontact-ball-position / </v>
+        <v xml:space="preserve">contact_player_wingcontact_ball_positioncontact_ball_position / </v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -4383,8 +4431,8 @@
         <v>94</v>
       </c>
       <c r="E147" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>contact-player-distance</v>
+        <f>C147&amp;"_"&amp;D147&amp;"_"&amp;B147</f>
+        <v>contact_player_distance</v>
       </c>
       <c r="F147" s="46" t="s">
         <v>143</v>
@@ -4395,7 +4443,7 @@
       </c>
       <c r="I147" t="str">
         <f>E129&amp;E131&amp;E134</f>
-        <v xml:space="preserve">contact-player-shotType / outgoing-ball-speed / outgoing-ball-depth / </v>
+        <v xml:space="preserve">contact_player_shotType / outgoing_ball_speed / outgoing_ball_depth / </v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
@@ -4412,14 +4460,14 @@
         <v>94</v>
       </c>
       <c r="E148" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>contact-player-wing</v>
+        <f>C148&amp;"_"&amp;D148&amp;"_"&amp;B148</f>
+        <v>contact_player_wing</v>
       </c>
       <c r="F148" s="46" t="s">
         <v>144</v>
       </c>
       <c r="G148" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H148" s="47" t="s">
         <v>205</v>
@@ -4439,15 +4487,15 @@
         <v>94</v>
       </c>
       <c r="E149" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>contact-player-shotType</v>
+        <f>C149&amp;"_"&amp;D149&amp;"_"&amp;B149</f>
+        <v>contact_player_shotType</v>
       </c>
       <c r="F149" s="44" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G149" s="43"/>
       <c r="H149" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I149" s="43" t="s">
         <v>209</v>
@@ -4467,8 +4515,8 @@
         <v>93</v>
       </c>
       <c r="E150" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>outgoing-ball-spin</v>
+        <f>C150&amp;"_"&amp;D150&amp;"_"&amp;B150</f>
+        <v>outgoing_ball_spin</v>
       </c>
       <c r="F150" s="24" t="s">
         <v>138</v>
@@ -4492,8 +4540,8 @@
         <v>93</v>
       </c>
       <c r="E151" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>outgoing-ball-speed</v>
+        <f>C151&amp;"_"&amp;D151&amp;"_"&amp;B151</f>
+        <v>outgoing_ball_speed</v>
       </c>
       <c r="F151" s="24" t="s">
         <v>139</v>
@@ -4517,8 +4565,8 @@
         <v>93</v>
       </c>
       <c r="E152" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>outgoing-ball-arc</v>
+        <f>C152&amp;"_"&amp;D152&amp;"_"&amp;B152</f>
+        <v>outgoing_ball_arc</v>
       </c>
       <c r="F152" s="24" t="s">
         <v>140</v>
@@ -4542,14 +4590,14 @@
         <v>93</v>
       </c>
       <c r="E153" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>outgoing-ball-destination</v>
+        <f>C153&amp;"_"&amp;D153&amp;"_"&amp;B153</f>
+        <v>outgoing_ball_destination</v>
       </c>
       <c r="F153" s="41" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="G153" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H153" s="41" t="s">
         <v>205</v>
@@ -4569,14 +4617,14 @@
         <v>93</v>
       </c>
       <c r="E154" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>outgoing-ball-depth</v>
+        <f>C154&amp;"_"&amp;D154&amp;"_"&amp;B154</f>
+        <v>outgoing_ball_depth</v>
       </c>
       <c r="F154" s="41" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G154" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H154" s="41" t="s">
         <v>205</v>
@@ -4584,13 +4632,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E156" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="F156" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="G156" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
@@ -4600,21 +4648,21 @@
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="F161" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E162" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
         <v>57</v>
@@ -4622,10 +4670,10 @@
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E164" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="F164" t="s">
         <v>63</v>
@@ -4633,10 +4681,10 @@
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E165" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="F165" t="s">
         <v>66</v>
@@ -4644,412 +4692,357 @@
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E168" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="F168" t="s">
         <v>141</v>
       </c>
       <c r="G168" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E169" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F169" t="s">
         <v>143</v>
       </c>
       <c r="G169" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E170" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="F170" t="s">
         <v>141</v>
       </c>
       <c r="G170" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E171" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="F171" t="s">
         <v>143</v>
       </c>
       <c r="G171" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E172" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="F172" t="s">
         <v>144</v>
       </c>
       <c r="G172" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E173" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F173" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G173" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E174" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F174" t="s">
         <v>138</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E175" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F175" t="s">
         <v>139</v>
       </c>
       <c r="G175" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E176" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="F176" t="s">
         <v>140</v>
       </c>
       <c r="G176" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E177" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="G177" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E178" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G178" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E179" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G179" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E183" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="F183" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G183" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E184" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F184" t="s">
         <v>57</v>
       </c>
       <c r="G184" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E185" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="F185" t="s">
         <v>63</v>
       </c>
       <c r="G185" t="s">
-        <v>253</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E188" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C189" t="s">
-        <v>265</v>
-      </c>
-      <c r="D189" t="s">
-        <v>266</v>
-      </c>
       <c r="E189" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E190" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E191" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E192" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C194" t="s">
-        <v>273</v>
-      </c>
-      <c r="D194" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="E194" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C195" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" t="s">
+        <v>228</v>
+      </c>
       <c r="E195" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C196" t="s">
-        <v>256</v>
-      </c>
       <c r="E196" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C197" t="s">
-        <v>257</v>
-      </c>
       <c r="E197" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C198" t="s">
-        <v>27</v>
-      </c>
-      <c r="D198" t="s">
-        <v>269</v>
-      </c>
-      <c r="E198" t="s">
-        <v>294</v>
+        <v>221</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C199" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E199" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C200" t="s">
-        <v>258</v>
-      </c>
       <c r="E200" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E201" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E202" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C203" t="s">
-        <v>275</v>
-      </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C204" t="s">
-        <v>267</v>
-      </c>
-      <c r="D204" t="s">
-        <v>268</v>
-      </c>
-      <c r="E204" t="s">
-        <v>293</v>
-      </c>
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E205" t="s">
-        <v>280</v>
-      </c>
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>271</v>
-      </c>
-      <c r="B206" t="s">
-        <v>272</v>
-      </c>
+      <c r="A206" s="9"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>277</v>
-      </c>
-      <c r="B207" t="b">
-        <v>0</v>
-      </c>
-      <c r="C207" t="s">
-        <v>270</v>
-      </c>
-      <c r="D207" t="s">
-        <v>269</v>
-      </c>
       <c r="E207" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
-        <v>278</v>
-      </c>
-      <c r="B208" t="s">
-        <v>279</v>
+      <c r="E208" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E209" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E210" t="s">
-        <v>282</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E211" s="9"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
